--- a/coxaxle/src/test/resources/datasheets/AT_05_VerifyUpdateAccount.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_05_VerifyUpdateAccount.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -27,9 +27,6 @@
     <t>thejaswi.y@vensaiinc.com</t>
   </si>
   <si>
-    <t>Sai@123</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <t>DealerCode</t>
   </si>
   <si>
-    <t>Test111</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -52,6 +46,15 @@
   </si>
   <si>
     <t>Thejaswi</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>Abc@123</t>
   </si>
 </sst>
 </file>
@@ -114,10 +117,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,7 +461,7 @@
     <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,41 +469,50 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="G2">
+        <v>45765</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/coxaxle/src/test/resources/datasheets/AT_05_VerifyUpdateAccount.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_05_VerifyUpdateAccount.xlsx
@@ -24,44 +24,44 @@
     <t>Password</t>
   </si>
   <si>
-    <t>thejaswi.y@vensaiinc.com</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>(276) 343-7888</t>
-  </si>
-  <si>
     <t>DealerCode</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>chandanagar,pjr statduim,xyz,hyderabad</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Thejaswi</t>
-  </si>
-  <si>
     <t>ZipCode</t>
   </si>
   <si>
-    <t>Test123</t>
-  </si>
-  <si>
-    <t>Abc@123</t>
+    <t>sabitha.adama@gmail.com</t>
+  </si>
+  <si>
+    <t>Qa@123</t>
+  </si>
+  <si>
+    <t>Test10</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>(123) 456-7888</t>
+  </si>
+  <si>
+    <t>DL0111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,14 +78,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -117,10 +109,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -448,7 +439,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,7 +449,7 @@
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -469,50 +460,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>45765</v>
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/coxaxle/src/test/resources/datasheets/AT_05_VerifyUpdateAccount.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_05_VerifyUpdateAccount.xlsx
@@ -39,12 +39,6 @@
     <t>ZipCode</t>
   </si>
   <si>
-    <t>sabitha.adama@gmail.com</t>
-  </si>
-  <si>
-    <t>Qa@123</t>
-  </si>
-  <si>
     <t>Test10</t>
   </si>
   <si>
@@ -54,7 +48,13 @@
     <t>(123) 456-7888</t>
   </si>
   <si>
-    <t>DL0111</t>
+    <t>ravi.tiwari@vensaiinc.com</t>
+  </si>
+  <si>
+    <t>Ravi@123</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -109,10 +109,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,7 +440,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,22 +478,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2">
         <v>12345</v>
